--- a/COVID-19 Canada Dataset (group by month and daily) v.s. google trend.xlsx
+++ b/COVID-19 Canada Dataset (group by month and daily) v.s. google trend.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daisy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daisy/Documents/GitHub/submit-project-data-machine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81CB067-12B5-EC40-AE1E-76CB3F340735}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB7308D-2C80-7145-B5C2-624C6DEE3F6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="127">
   <si>
     <t>Region</t>
   </si>
@@ -1283,10 +1283,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="B122" sqref="B122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1297,99 +1297,119 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1398,71 +1418,71 @@
         <v>6</v>
       </c>
       <c r="D9" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
@@ -1473,265 +1493,265 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
         <v>6</v>
       </c>
-      <c r="C17" s="2">
-        <v>8</v>
-      </c>
       <c r="D17" s="2">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C22" s="2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2">
         <v>11</v>
       </c>
       <c r="D24" s="2">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="C25" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>276</v>
       </c>
       <c r="C26" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C27" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>276</v>
+        <v>367</v>
       </c>
       <c r="C28" s="2">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D28" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>367</v>
+        <v>620</v>
       </c>
       <c r="C30" s="2">
         <v>18</v>
       </c>
       <c r="D30" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>701</v>
       </c>
       <c r="C31" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C32" s="2">
         <v>18</v>
       </c>
       <c r="D32" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>701</v>
+        <v>634</v>
       </c>
       <c r="C33" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2">
         <v>35</v>
@@ -1739,13 +1759,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>617</v>
+        <v>646</v>
       </c>
       <c r="C34" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2">
         <v>36</v>
@@ -1753,167 +1773,167 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="C35" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D35" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>646</v>
+        <v>833</v>
       </c>
       <c r="C36" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>736</v>
+        <v>1179</v>
       </c>
       <c r="C37" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>833</v>
+        <v>1111</v>
       </c>
       <c r="C38" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>1179</v>
+        <v>1065</v>
       </c>
       <c r="C39" s="2">
         <v>17</v>
       </c>
       <c r="D39" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>1111</v>
+        <v>1670</v>
       </c>
       <c r="C40" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D40" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>1065</v>
+        <v>1254</v>
       </c>
       <c r="C41" s="2">
         <v>17</v>
       </c>
       <c r="D41" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>1670</v>
+        <v>1367</v>
       </c>
       <c r="C42" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D42" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>1254</v>
+        <v>1608</v>
       </c>
       <c r="C43" s="2">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D43" s="2">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>1367</v>
+        <v>1155</v>
       </c>
       <c r="C44" s="2">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>1608</v>
+        <v>1230</v>
       </c>
       <c r="C45" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>1155</v>
+        <v>1392</v>
       </c>
       <c r="C46" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D46" s="2">
         <v>37</v>
@@ -1921,293 +1941,293 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>1230</v>
+        <v>1476</v>
       </c>
       <c r="C47" s="2">
         <v>20</v>
       </c>
       <c r="D47" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="C48" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D48" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>1476</v>
+        <v>1170</v>
       </c>
       <c r="C49" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D49" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>1383</v>
+        <v>1065</v>
       </c>
       <c r="C50" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>1170</v>
+        <v>1297</v>
       </c>
       <c r="C51" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>1065</v>
+        <v>1383</v>
       </c>
       <c r="C52" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>1297</v>
+        <v>1318</v>
       </c>
       <c r="C53" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>1383</v>
+        <v>1711</v>
       </c>
       <c r="C54" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>1318</v>
+        <v>1792</v>
       </c>
       <c r="C55" s="2">
         <v>17</v>
       </c>
       <c r="D55" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>1711</v>
+        <v>1470</v>
       </c>
       <c r="C56" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>1792</v>
+        <v>1432</v>
       </c>
       <c r="C57" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D57" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>1470</v>
+        <v>2045</v>
       </c>
       <c r="C58" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>1432</v>
+        <v>1591</v>
       </c>
       <c r="C59" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>2045</v>
+        <v>1768</v>
       </c>
       <c r="C60" s="2">
         <v>17</v>
       </c>
       <c r="D60" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>1591</v>
+        <v>1920</v>
       </c>
       <c r="C61" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D61" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>1768</v>
+        <v>1778</v>
       </c>
       <c r="C62" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D62" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>1920</v>
+        <v>1466</v>
       </c>
       <c r="C63" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D63" s="2">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>1778</v>
+        <v>1541</v>
       </c>
       <c r="C64" s="2">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D64" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>1466</v>
+        <v>1605</v>
       </c>
       <c r="C65" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>1541</v>
+        <v>1526</v>
       </c>
       <c r="C66" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D66" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>1605</v>
+        <v>1571</v>
       </c>
       <c r="C67" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2">
         <v>37</v>
@@ -2215,111 +2235,111 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>1526</v>
+        <v>1639</v>
       </c>
       <c r="C68" s="2">
         <v>16</v>
       </c>
       <c r="D68" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>1571</v>
+        <v>1825</v>
       </c>
       <c r="C69" s="2">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D69" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>1639</v>
+        <v>1653</v>
       </c>
       <c r="C70" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D70" s="2">
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>1825</v>
+        <v>2760</v>
       </c>
       <c r="C71" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D71" s="2">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>1653</v>
+        <v>1298</v>
       </c>
       <c r="C72" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D72" s="2">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>2760</v>
+        <v>1274</v>
       </c>
       <c r="C73" s="2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>1298</v>
+        <v>1450</v>
       </c>
       <c r="C74" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>1274</v>
+        <v>1426</v>
       </c>
       <c r="C75" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="2">
         <v>44</v>
@@ -2327,556 +2347,528 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>1450</v>
+        <v>1512</v>
       </c>
       <c r="C76" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>1426</v>
+        <v>1268</v>
       </c>
       <c r="C77" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>1512</v>
+        <v>1146</v>
       </c>
       <c r="C78" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>1268</v>
+        <v>1133</v>
       </c>
       <c r="C79" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>1146</v>
+        <v>1176</v>
       </c>
       <c r="C80" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>1133</v>
+        <v>1121</v>
       </c>
       <c r="C81" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D81" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>1176</v>
+        <v>1210</v>
       </c>
       <c r="C82" s="2">
         <v>13</v>
       </c>
       <c r="D82" s="2">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="C83" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>1210</v>
+        <v>1251</v>
       </c>
       <c r="C84" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>1125</v>
+        <v>1138</v>
       </c>
       <c r="C85" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D85" s="2">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>1251</v>
+        <v>1070</v>
       </c>
       <c r="C86" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>1138</v>
+        <v>1040</v>
       </c>
       <c r="C87" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>1070</v>
+        <v>1011</v>
       </c>
       <c r="C88" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D88" s="2">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>1040</v>
+        <v>1201</v>
       </c>
       <c r="C89" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D89" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>1011</v>
+        <v>1156</v>
       </c>
       <c r="C90" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D90" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>1201</v>
+        <v>1141</v>
       </c>
       <c r="C91" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D91" s="2">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>1156</v>
+        <v>1078</v>
       </c>
       <c r="C92" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D92" s="2">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>1141</v>
+        <v>1012</v>
       </c>
       <c r="C93" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D93" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>1078</v>
+        <v>936</v>
       </c>
       <c r="C94" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D94" s="2">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>1012</v>
+        <v>872</v>
       </c>
       <c r="C95" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D95" s="2">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>936</v>
+        <v>993</v>
       </c>
       <c r="C96" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D96" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>872</v>
+        <v>906</v>
       </c>
       <c r="C97" s="2">
         <v>11</v>
       </c>
       <c r="D97" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>993</v>
+        <v>772</v>
       </c>
       <c r="C98" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>906</v>
+        <v>757</v>
       </c>
       <c r="C99" s="2">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D99" s="2">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="C100" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D100" s="2">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>757</v>
+        <v>705</v>
       </c>
       <c r="C101" s="2">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D101" s="2">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>758</v>
+        <v>675</v>
       </c>
       <c r="C102" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D102" s="2">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
-        <v>705</v>
+        <v>641</v>
       </c>
       <c r="C103" s="2">
         <v>10</v>
       </c>
       <c r="D103" s="2">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
-        <v>675</v>
+        <v>609</v>
       </c>
       <c r="C104" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D104" s="2">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="C105" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D105" s="2">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="C106" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D106" s="2">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107">
-        <v>722</v>
+        <v>545</v>
       </c>
       <c r="C107" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D107" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108">
-        <v>642</v>
+        <v>409</v>
       </c>
       <c r="C108" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D108" s="2">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B109">
-        <v>545</v>
-      </c>
-      <c r="C109" s="2">
-        <v>11</v>
-      </c>
-      <c r="D109" s="2">
-        <v>71</v>
+        <f>SUM(B2:B108)</f>
+        <v>96653</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B110">
-        <v>409</v>
-      </c>
-      <c r="C110" s="2">
-        <v>10</v>
-      </c>
-      <c r="D110" s="2">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111">
-        <f>SUM(B4:B110)</f>
-        <v>96653</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B112">
-        <v>4</v>
+        <v>8533</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>44688</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B114">
-        <v>8533</v>
+        <v>37711</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B115">
-        <v>44688</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116">
-        <v>37711</v>
-      </c>
+      <c r="A116"/>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117">
-        <v>5706</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118"/>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119"/>
+      <c r="A117"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
